--- a/Tutorial - Série Histórica - Totais/totais.xlsx
+++ b/Tutorial - Série Histórica - Totais/totais.xlsx
@@ -14,27 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>CD_ALUNO_SME</t>
+    <t>Ed. Infantil - Creche</t>
+  </si>
+  <si>
+    <t>Ed. Infantil - Pré</t>
+  </si>
+  <si>
+    <t>Fundamental - Anos Iniciais</t>
+  </si>
+  <si>
+    <t>Fundamental - Anos Finais</t>
   </si>
   <si>
     <t>AN_LETIVO</t>
-  </si>
-  <si>
-    <t>MODALIDADE_SEGMENTO</t>
-  </si>
-  <si>
-    <t>CRECHE</t>
-  </si>
-  <si>
-    <t>Fund1</t>
-  </si>
-  <si>
-    <t>Fund2</t>
-  </si>
-  <si>
-    <t>PRE</t>
   </si>
 </sst>
 </file>
@@ -392,338 +386,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>2009</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>123263</v>
       </c>
       <c r="C2">
-        <v>123263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>310051</v>
+      </c>
+      <c r="D2">
+        <v>246280</v>
+      </c>
+      <c r="E2">
+        <v>243675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B3">
+        <v>130378</v>
       </c>
       <c r="C3">
-        <v>246280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>289531</v>
+      </c>
+      <c r="D3">
+        <v>233269</v>
+      </c>
+      <c r="E3">
+        <v>246612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B4">
+        <v>195652</v>
       </c>
       <c r="C4">
-        <v>243675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>185398</v>
+      </c>
+      <c r="D4">
+        <v>215088</v>
+      </c>
+      <c r="E4">
+        <v>242796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B5">
+        <v>213561</v>
       </c>
       <c r="C5">
-        <v>310051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>182327</v>
+      </c>
+      <c r="D5">
+        <v>209006</v>
+      </c>
+      <c r="E5">
+        <v>239943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>2013</v>
+      </c>
+      <c r="B6">
+        <v>214452</v>
       </c>
       <c r="C6">
-        <v>130378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>200394</v>
+      </c>
+      <c r="D6">
+        <v>205071</v>
+      </c>
+      <c r="E6">
+        <v>237507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B7">
+        <v>228311</v>
       </c>
       <c r="C7">
-        <v>233269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>202558</v>
+      </c>
+      <c r="D7">
+        <v>246661</v>
+      </c>
+      <c r="E7">
+        <v>177323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B8">
+        <v>260776</v>
       </c>
       <c r="C8">
-        <v>246612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>204573</v>
+      </c>
+      <c r="D8">
+        <v>245089</v>
+      </c>
+      <c r="E8">
+        <v>170289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B9">
+        <v>284115</v>
       </c>
       <c r="C9">
-        <v>289531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>195652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>215088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>242796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>185398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>213561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>209006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>239943</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>182327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>214452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>205071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>237507</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>200394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>228311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>246661</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>177323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>202558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>260776</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>245089</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>170289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>204573</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>284115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
+        <v>215123</v>
+      </c>
+      <c r="D9">
         <v>245641</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
+      <c r="E9">
         <v>169444</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33">
-        <v>215123</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>